--- a/converged_mean_number.xlsx
+++ b/converged_mean_number.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjjlt/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zac/Documents/MeanShift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99EAE755-6868-7642-A832-0972E642346F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6B991C5-8CE4-AC4D-9498-848031B52B52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="24940" windowHeight="15540" xr2:uid="{88100082-FDE1-0F4F-8C3C-E1D8C64F1ADC}"/>
+    <workbookView xWindow="23500" yWindow="10660" windowWidth="24940" windowHeight="15540" xr2:uid="{88100082-FDE1-0F4F-8C3C-E1D8C64F1ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>input1</t>
   </si>
@@ -43,10 +43,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,6 +97,2303 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>input1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B550-0B4C-890E-A32F9EB8E8F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>input2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B550-0B4C-890E-A32F9EB8E8F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1230827423"/>
+        <c:axId val="1230829119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1230827423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bandwidth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230829119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230829119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="95"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>converged</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>modes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230827423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>input1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BC0-8749-9EFF-88D37009616A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>input2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BC0-8749-9EFF-88D37009616A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1230827423"/>
+        <c:axId val="1230829119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1230827423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bandwidth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230829119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230829119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="95"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>converged</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>modes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230827423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757DDB1D-C3CC-6740-8731-452C2E5F2805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47480C9-7AB4-134C-B1FB-CDD9B3437A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,15 +2693,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAB88E5-CCBE-FD48-A2DF-B60C45B55F89}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -425,7 +2730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -454,7 +2759,36 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -483,37 +2817,67 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="1">
         <v>97</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="1">
         <v>80</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="1">
         <v>71</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="1">
         <v>66</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="1">
         <v>64</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="1">
         <v>60</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="1">
         <v>57</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="1">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>